--- a/biology/Zoologie/Gesomyrmex/Gesomyrmex.xlsx
+++ b/biology/Zoologie/Gesomyrmex/Gesomyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphomyrmex, Gaesomyrmex
 Gesomyrmex est un genre d'insectes Hyménoptères de la famille des Formicidae (les fourmis).
@@ -512,11 +524,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gesomyrmex est décrit et publié en 1921 par l'entomologiste autrichien Gustav Mayr (1830-1908)[1],[2] avec comme espèce type †Gesomyrmex hoernesi Mayr, 1868[1].
-Citations
-Le genre Gesomyrmex est cité par Barry Bolton en 2003 et en 2012, Frank Carpenter (d) en 1992, Gennady Dlussky (d) et al. en 2015, William Wheeler en 1915 et en 1929[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gesomyrmex est décrit et publié en 1921 par l'entomologiste autrichien Gustav Mayr (1830-1908), avec comme espèce type †Gesomyrmex hoernesi Mayr, 1868.
 </t>
         </is>
       </c>
@@ -542,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Présentation</t>
+          <t>Publication</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gesomyrmex est un genre de fourmis de la sous-famille des Formicinae[3].
-Le genre contient six espèces existantes, connues des régions indomalaises[4], et neuf espèces fossiles[5].
-Parmi les espèces existantes, quatre ne sont connues que par des ouvrières (G. chaperi, G. howardi, G. kalshoveni et G. spatulatus) et deux seulement des femelles (G. luzonensis et G. tobiasi)[6]. Les espèces éteintes G. expectans et G. miegi, anciennement placées dans le genre, ont été exclues par Dlussky et al., 2009.
-Les espèces vivantes sont arboricoles et construisent généralement des nids dans les brindilles des arbres[5].
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gesomyrmex est cité par Barry Bolton en 2003 et en 2012, Frank Carpenter (d) en 1992, Gennady Dlussky (d) et al. en 2015, William Wheeler en 1915 et en 1929.
 </t>
         </is>
       </c>
@@ -576,10 +591,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesomyrmex est un genre de fourmis de la sous-famille des Formicinae.
+Le genre contient six espèces existantes, connues des régions indomalaises, et neuf espèces fossiles.
+Parmi les espèces existantes, quatre ne sont connues que par des ouvrières (G. chaperi, G. howardi, G. kalshoveni et G. spatulatus) et deux seulement des femelles (G. luzonensis et G. tobiasi). Les espèces éteintes G. expectans et G. miegi, anciennement placées dans le genre, ont été exclues par Dlussky et al., 2009.
+Les espèces vivantes sont arboricoles et construisent généralement des nids dans les brindilles des arbres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gesomyrmex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 †Gesomyrmex bremii (Heer, 1849)
@@ -599,7 +652,7 @@
 Gesomyrmex spatulatus Cole, 1949
 Gesomyrmex tobiasi Dubovikov, 2004
 Fossilworks connait aussi :
-†Gesomyrmex miegi Théobald, 1937[7]</t>
+†Gesomyrmex miegi Théobald, 1937</t>
         </is>
       </c>
     </row>
